--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_10_1.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_10_1.xlsx
@@ -482,90 +482,90 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05788028491401187</v>
+        <v>0.6654078020343008</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.701641851719485</v>
+        <v>-0.3131018370847687</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7559771690100865</v>
+        <v>0.3585108818504688</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.254304093237532</v>
+        <v>0.06866841829193859</v>
       </c>
       <c r="F2" t="n">
-        <v>1.042649030685425</v>
+        <v>0.370294988155365</v>
       </c>
       <c r="G2" t="n">
-        <v>1.782919764518738</v>
+        <v>1.238277912139893</v>
       </c>
       <c r="H2" t="n">
-        <v>4.812932968139648</v>
+        <v>0.8910083770751953</v>
       </c>
       <c r="I2" t="n">
-        <v>3.208806037902832</v>
+        <v>1.074856638908386</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_3</t>
+          <t>model_10_1_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06018374247075475</v>
+        <v>0.6726587272939677</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.84143786166037</v>
+        <v>-0.3748104032787467</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5833212515659205</v>
+        <v>0.3298698521879422</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.354374562390513</v>
+        <v>0.0257531521474389</v>
       </c>
       <c r="F3" t="n">
-        <v>1.040099620819092</v>
+        <v>0.362270325422287</v>
       </c>
       <c r="G3" t="n">
-        <v>2.472619771957397</v>
+        <v>1.296470046043396</v>
       </c>
       <c r="H3" t="n">
-        <v>4.33970308303833</v>
+        <v>0.9307898879051208</v>
       </c>
       <c r="I3" t="n">
-        <v>3.351247310638428</v>
+        <v>1.124385476112366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_4</t>
+          <t>model_10_1_17</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08474012696656807</v>
+        <v>0.6727424936888859</v>
       </c>
       <c r="C4" t="n">
-        <v>-13.72429422179316</v>
+        <v>-0.3645084027780809</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.532795508324126</v>
+        <v>0.3220506528079983</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.301331087866818</v>
+        <v>0.02578114564255063</v>
       </c>
       <c r="F4" t="n">
-        <v>1.012923002243042</v>
+        <v>0.3621776401996613</v>
       </c>
       <c r="G4" t="n">
-        <v>2.453103303909302</v>
+        <v>1.286755084991455</v>
       </c>
       <c r="H4" t="n">
-        <v>4.201217651367188</v>
+        <v>0.9416505098342896</v>
       </c>
       <c r="I4" t="n">
-        <v>3.275744915008545</v>
+        <v>1.124353051185608</v>
       </c>
     </row>
     <row r="5">
@@ -575,28 +575,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2860467606136041</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C5" t="n">
-        <v>-15.87690144102282</v>
+        <v>-0.3571550579828167</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1361853296603164</v>
+        <v>0.3184464987679826</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.8285196674934023</v>
+        <v>0.02692118404605293</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7901358604431152</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G5" t="n">
-        <v>2.811733245849609</v>
+        <v>1.279820799827576</v>
       </c>
       <c r="H5" t="n">
-        <v>2.36761736869812</v>
+        <v>0.9466565847396851</v>
       </c>
       <c r="I5" t="n">
-        <v>2.602738857269287</v>
+        <v>1.123037338256836</v>
       </c>
     </row>
     <row r="6">
@@ -606,152 +606,152 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2946155158135104</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C6" t="n">
-        <v>-15.90789573870956</v>
+        <v>-0.3571550579828167</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1625256297631782</v>
+        <v>0.3184464987679826</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8065717492454154</v>
+        <v>0.02692118404605293</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7806527018547058</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G6" t="n">
-        <v>2.816896915435791</v>
+        <v>1.279820799827576</v>
       </c>
       <c r="H6" t="n">
-        <v>2.295421600341797</v>
+        <v>0.9466565847396851</v>
       </c>
       <c r="I6" t="n">
-        <v>2.571497917175293</v>
+        <v>1.123037338256836</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_22</t>
+          <t>model_10_1_9</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2962366051516435</v>
+        <v>0.6731409431542253</v>
       </c>
       <c r="C7" t="n">
-        <v>-15.92149698797539</v>
+        <v>-0.3710434286522086</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1680403633687755</v>
+        <v>0.3296371343688055</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8024193298795346</v>
+        <v>0.0272508088946275</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7788587212562561</v>
+        <v>0.3617366850376129</v>
       </c>
       <c r="G7" t="n">
-        <v>2.819163084030151</v>
+        <v>1.292917728424072</v>
       </c>
       <c r="H7" t="n">
-        <v>2.280306339263916</v>
+        <v>0.931113064289093</v>
       </c>
       <c r="I7" t="n">
-        <v>2.565587043762207</v>
+        <v>1.12265682220459</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_21</t>
+          <t>model_10_1_22</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2985920178932074</v>
+        <v>0.6731504177283478</v>
       </c>
       <c r="C8" t="n">
-        <v>-15.92495012213216</v>
+        <v>-0.357095672582511</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1749353270948041</v>
+        <v>0.3184986020383779</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.7963862441330543</v>
+        <v>0.0269764204414833</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7762519121170044</v>
+        <v>0.3617261350154877</v>
       </c>
       <c r="G8" t="n">
-        <v>2.819738149642944</v>
+        <v>1.279764652252197</v>
       </c>
       <c r="H8" t="n">
-        <v>2.261408090591431</v>
+        <v>0.946584165096283</v>
       </c>
       <c r="I8" t="n">
-        <v>2.556999683380127</v>
+        <v>1.122973561286926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_20</t>
+          <t>model_10_1_21</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3007369023190974</v>
+        <v>0.6732500778038092</v>
       </c>
       <c r="C9" t="n">
-        <v>-15.94110934717137</v>
+        <v>-0.3568397586847933</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1821024080358667</v>
+        <v>0.3188706310995222</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7908917838906009</v>
+        <v>0.02729768170598912</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7738782167434692</v>
+        <v>0.3616158664226532</v>
       </c>
       <c r="G9" t="n">
-        <v>2.822430372238159</v>
+        <v>1.279523372650146</v>
       </c>
       <c r="H9" t="n">
-        <v>2.241764068603516</v>
+        <v>0.9460674524307251</v>
       </c>
       <c r="I9" t="n">
-        <v>2.549178838729858</v>
+        <v>1.122602939605713</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_19</t>
+          <t>model_10_1_4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3029764443892735</v>
+        <v>0.6733657827974664</v>
       </c>
       <c r="C10" t="n">
-        <v>-15.95465924960405</v>
+        <v>-0.408839100924822</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1893596246061466</v>
+        <v>0.3647972904289529</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7851549772546602</v>
+        <v>0.03081439831803179</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7713996171951294</v>
+        <v>0.3614878356456757</v>
       </c>
       <c r="G10" t="n">
-        <v>2.824687957763672</v>
+        <v>1.328559637069702</v>
       </c>
       <c r="H10" t="n">
-        <v>2.221872806549072</v>
+        <v>0.882276713848114</v>
       </c>
       <c r="I10" t="n">
-        <v>2.54101300239563</v>
+        <v>1.118544220924377</v>
       </c>
     </row>
     <row r="11">
@@ -761,90 +761,90 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3066608664162855</v>
+        <v>0.673532426651683</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.98857222136044</v>
+        <v>-0.3829196245382855</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06565980945764882</v>
+        <v>0.3439723656436888</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7754159561076877</v>
+        <v>0.03023239865027927</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7673220634460449</v>
+        <v>0.3613033890724182</v>
       </c>
       <c r="G11" t="n">
-        <v>2.497132778167725</v>
+        <v>1.304117202758789</v>
       </c>
       <c r="H11" t="n">
-        <v>2.560919761657715</v>
+        <v>0.9112019538879395</v>
       </c>
       <c r="I11" t="n">
-        <v>2.527150392532349</v>
+        <v>1.119215965270996</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_18</t>
+          <t>model_10_1_20</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3094704138821956</v>
+        <v>0.6735494200212875</v>
       </c>
       <c r="C12" t="n">
-        <v>-15.93756542685954</v>
+        <v>-0.3550319634784489</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2065434949996625</v>
+        <v>0.3191726796548366</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7685218044898958</v>
+        <v>0.02825070305008059</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7642127275466919</v>
+        <v>0.3612845838069916</v>
       </c>
       <c r="G12" t="n">
-        <v>2.821840047836304</v>
+        <v>1.277818560600281</v>
       </c>
       <c r="H12" t="n">
-        <v>2.174773693084717</v>
+        <v>0.9456478953361511</v>
       </c>
       <c r="I12" t="n">
-        <v>2.517337083816528</v>
+        <v>1.121502876281738</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_17</t>
+          <t>model_10_1_15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3109144762305915</v>
+        <v>0.673687612309118</v>
       </c>
       <c r="C13" t="n">
-        <v>-15.94783291708234</v>
+        <v>-0.3595737632941307</v>
       </c>
       <c r="D13" t="n">
-        <v>0.211326397238162</v>
+        <v>0.3235884425490637</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7648223184863785</v>
+        <v>0.02878693929150922</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7626146078109741</v>
+        <v>0.3611316680908203</v>
       </c>
       <c r="G13" t="n">
-        <v>2.823550462722778</v>
+        <v>1.282101631164551</v>
       </c>
       <c r="H13" t="n">
-        <v>2.161664485931396</v>
+        <v>0.9395145773887634</v>
       </c>
       <c r="I13" t="n">
-        <v>2.512071371078491</v>
+        <v>1.12088406085968</v>
       </c>
     </row>
     <row r="14">
@@ -854,121 +854,121 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3126434317740988</v>
+        <v>0.6737165394695905</v>
       </c>
       <c r="C14" t="n">
-        <v>-15.95007226894851</v>
+        <v>-0.3588336186717982</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2163699642770196</v>
+        <v>0.3231735537513322</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.7603935458604969</v>
+        <v>0.02887196263485592</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7607011795043945</v>
+        <v>0.3610996603965759</v>
       </c>
       <c r="G14" t="n">
-        <v>2.823923587799072</v>
+        <v>1.281403660774231</v>
       </c>
       <c r="H14" t="n">
-        <v>2.14784049987793</v>
+        <v>0.9400908350944519</v>
       </c>
       <c r="I14" t="n">
-        <v>2.505767107009888</v>
+        <v>1.12078595161438</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_15</t>
+          <t>model_10_1_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3143544617232111</v>
+        <v>0.6739146618586163</v>
       </c>
       <c r="C15" t="n">
-        <v>-15.95015086498228</v>
+        <v>-0.3601612090442967</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2212106042933475</v>
+        <v>0.3254017354607431</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.7560102757160385</v>
+        <v>0.02955967849416208</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7588075995445251</v>
+        <v>0.3608803749084473</v>
       </c>
       <c r="G15" t="n">
-        <v>2.823936462402344</v>
+        <v>1.282655477523804</v>
       </c>
       <c r="H15" t="n">
-        <v>2.134572982788086</v>
+        <v>0.9369959235191345</v>
       </c>
       <c r="I15" t="n">
-        <v>2.499527931213379</v>
+        <v>1.119992256164551</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_14</t>
+          <t>model_10_1_18</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3195690023786719</v>
+        <v>0.6739924046657439</v>
       </c>
       <c r="C16" t="n">
-        <v>-15.92643683494042</v>
+        <v>-0.3541650921807626</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2343301756640414</v>
+        <v>0.3210473704135725</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.7426543331705409</v>
+        <v>0.02968734599361322</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7530366182327271</v>
+        <v>0.360794335603714</v>
       </c>
       <c r="G16" t="n">
-        <v>2.819985866546631</v>
+        <v>1.277001142501831</v>
       </c>
       <c r="H16" t="n">
-        <v>2.098613500595093</v>
+        <v>0.9430440068244934</v>
       </c>
       <c r="I16" t="n">
-        <v>2.480516910552979</v>
+        <v>1.119845032691956</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_13</t>
+          <t>model_10_1_11</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3199253975225447</v>
+        <v>0.6740106434606149</v>
       </c>
       <c r="C17" t="n">
-        <v>-15.93055737295865</v>
+        <v>-0.3592224748611699</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2356196683891294</v>
+        <v>0.325212159957798</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.7417417168844489</v>
+        <v>0.0298583570729779</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7526422142982483</v>
+        <v>0.3607741892337799</v>
       </c>
       <c r="G17" t="n">
-        <v>2.820672273635864</v>
+        <v>1.281770348548889</v>
       </c>
       <c r="H17" t="n">
-        <v>2.09507942199707</v>
+        <v>0.9372592568397522</v>
       </c>
       <c r="I17" t="n">
-        <v>2.479218006134033</v>
+        <v>1.119647622108459</v>
       </c>
     </row>
     <row r="18">
@@ -978,214 +978,214 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3200715924878987</v>
+        <v>0.6745474870293133</v>
       </c>
       <c r="C18" t="n">
-        <v>-15.93328066941046</v>
+        <v>-0.3538835773135671</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2362184735946677</v>
+        <v>0.3241258585839981</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.7413665289471905</v>
+        <v>0.03155272047093471</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7524803876876831</v>
+        <v>0.3601800501346588</v>
       </c>
       <c r="G18" t="n">
-        <v>2.821125984191895</v>
+        <v>1.276735782623291</v>
       </c>
       <c r="H18" t="n">
-        <v>2.093438148498535</v>
+        <v>0.9387680888175964</v>
       </c>
       <c r="I18" t="n">
-        <v>2.478684186935425</v>
+        <v>1.117691993713379</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_11</t>
+          <t>model_10_1_19</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3211260544773825</v>
+        <v>0.6748358163897757</v>
       </c>
       <c r="C19" t="n">
-        <v>-15.92810658217772</v>
+        <v>-0.3476449633534389</v>
       </c>
       <c r="D19" t="n">
-        <v>0.238846298006459</v>
+        <v>0.3207594424570495</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.7386654729151068</v>
+        <v>0.03234475863462904</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7513133883476257</v>
+        <v>0.3598609268665314</v>
       </c>
       <c r="G19" t="n">
-        <v>2.820264101028442</v>
+        <v>1.270852565765381</v>
       </c>
       <c r="H19" t="n">
-        <v>2.086235523223877</v>
+        <v>0.9434439539909363</v>
       </c>
       <c r="I19" t="n">
-        <v>2.474839448928833</v>
+        <v>1.116778016090393</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_10</t>
+          <t>model_10_1_13</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3212031353570746</v>
+        <v>0.6748673028492558</v>
       </c>
       <c r="C20" t="n">
-        <v>-15.92977699836236</v>
+        <v>-0.3517407435665285</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2391783756434047</v>
+        <v>0.3242274567428035</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.7384677300493743</v>
+        <v>0.03253697434324487</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7512280344963074</v>
+        <v>0.3598260879516602</v>
       </c>
       <c r="G20" t="n">
-        <v>2.820542335510254</v>
+        <v>1.274714946746826</v>
       </c>
       <c r="H20" t="n">
-        <v>2.085325241088867</v>
+        <v>0.9386269450187683</v>
       </c>
       <c r="I20" t="n">
-        <v>2.474557876586914</v>
+        <v>1.116556286811829</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_9</t>
+          <t>model_10_1_14</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3213777187078733</v>
+        <v>0.6750390411828946</v>
       </c>
       <c r="C21" t="n">
-        <v>-15.93001717406261</v>
+        <v>-0.3500642146970379</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2396883522601687</v>
+        <v>0.3238914944442692</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.7380209094333996</v>
+        <v>0.03307228979176946</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7510348558425903</v>
+        <v>0.3596360385417938</v>
       </c>
       <c r="G21" t="n">
-        <v>2.820582389831543</v>
+        <v>1.273133873939514</v>
       </c>
       <c r="H21" t="n">
-        <v>2.083927631378174</v>
+        <v>0.9390936493873596</v>
       </c>
       <c r="I21" t="n">
-        <v>2.473921775817871</v>
+        <v>1.115938305854797</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_8</t>
+          <t>model_10_1_7</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3221456938585103</v>
+        <v>0.6754390636708122</v>
       </c>
       <c r="C22" t="n">
-        <v>-15.91831641228479</v>
+        <v>-0.3649794492261731</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2410604674573581</v>
+        <v>0.3383637711592755</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.7360524212844313</v>
+        <v>0.03481631750169156</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7501850128173828</v>
+        <v>0.3591933250427246</v>
       </c>
       <c r="G22" t="n">
-        <v>2.818633079528809</v>
+        <v>1.287199378013611</v>
       </c>
       <c r="H22" t="n">
-        <v>2.080166578292847</v>
+        <v>0.9189921021461487</v>
       </c>
       <c r="I22" t="n">
-        <v>2.47111988067627</v>
+        <v>1.113925576210022</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_7</t>
+          <t>model_10_1_6</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3226665415845951</v>
+        <v>0.6755164568056855</v>
       </c>
       <c r="C23" t="n">
-        <v>-15.9191780251637</v>
+        <v>-0.3656297570528668</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2425925022148827</v>
+        <v>0.3394384174549508</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.7347175361235112</v>
+        <v>0.03514396526578034</v>
       </c>
       <c r="F23" t="n">
-        <v>0.74960857629776</v>
+        <v>0.3591076731681824</v>
       </c>
       <c r="G23" t="n">
-        <v>2.818776607513428</v>
+        <v>1.28781259059906</v>
       </c>
       <c r="H23" t="n">
-        <v>2.07596755027771</v>
+        <v>0.9174994230270386</v>
       </c>
       <c r="I23" t="n">
-        <v>2.469219923019409</v>
+        <v>1.113547444343567</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_1_6</t>
+          <t>model_10_1_3</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3228391271188571</v>
+        <v>0.6859054242072302</v>
       </c>
       <c r="C24" t="n">
-        <v>-15.91278829476176</v>
+        <v>-0.2837763372652367</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2426438699703718</v>
+        <v>0.3611801751803887</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.7342749509852642</v>
+        <v>0.08286540790518027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7494176030158997</v>
+        <v>0.3476101458072662</v>
       </c>
       <c r="G24" t="n">
-        <v>2.817712068557739</v>
+        <v>1.210623264312744</v>
       </c>
       <c r="H24" t="n">
-        <v>2.075826644897461</v>
+        <v>0.8873007893562317</v>
       </c>
       <c r="I24" t="n">
-        <v>2.468589544296265</v>
+        <v>1.05847179889679</v>
       </c>
     </row>
     <row r="25">
@@ -1195,28 +1195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3897505461593463</v>
+        <v>0.7267443074194322</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.00165817280222</v>
+        <v>0.04213534430468391</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3965522583768734</v>
+        <v>0.5526929139258074</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.04263525251426259</v>
+        <v>0.3323125230842148</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6753663420677185</v>
+        <v>0.3024135231971741</v>
       </c>
       <c r="G25" t="n">
-        <v>1.333095908164978</v>
+        <v>0.9032828807830811</v>
       </c>
       <c r="H25" t="n">
-        <v>1.653981447219849</v>
+        <v>0.6212955713272095</v>
       </c>
       <c r="I25" t="n">
-        <v>1.484100699424744</v>
+        <v>0.7705829739570618</v>
       </c>
     </row>
     <row r="26">
@@ -1226,28 +1226,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5178454210504179</v>
+        <v>0.7463476027817892</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.665824489500977</v>
+        <v>0.4785403134894666</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6444905586067421</v>
+        <v>0.6323103106306069</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3267739356661328</v>
+        <v>0.5661844059404084</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5336030721664429</v>
+        <v>0.2807184755802155</v>
       </c>
       <c r="G26" t="n">
-        <v>0.943940281867981</v>
+        <v>0.4917455315589905</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9744107723236084</v>
+        <v>0.5107095241546631</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9582787752151489</v>
+        <v>0.5006697773933411</v>
       </c>
     </row>
   </sheetData>
